--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dhh-Hhip.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dhh-Hhip.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H2">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I2">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J2">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1648133333333333</v>
+        <v>0.046397</v>
       </c>
       <c r="N2">
-        <v>0.49444</v>
+        <v>0.139191</v>
       </c>
       <c r="O2">
-        <v>0.07417711173133736</v>
+        <v>0.01970724914037141</v>
       </c>
       <c r="P2">
-        <v>0.07417711173133736</v>
+        <v>0.01970724914037141</v>
       </c>
       <c r="Q2">
-        <v>0.2586620557911111</v>
+        <v>0.1698110867916667</v>
       </c>
       <c r="R2">
-        <v>2.32795850212</v>
+        <v>1.528299781125</v>
       </c>
       <c r="S2">
-        <v>0.02181785138035853</v>
+        <v>0.009422296037878473</v>
       </c>
       <c r="T2">
-        <v>0.02181785138035853</v>
+        <v>0.009422296037878471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H3">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I3">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J3">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.660768</v>
       </c>
       <c r="O3">
-        <v>0.6992199431474835</v>
+        <v>0.6598912010221247</v>
       </c>
       <c r="P3">
-        <v>0.6992199431474835</v>
+        <v>0.6598912010221247</v>
       </c>
       <c r="Q3">
-        <v>2.438240903740444</v>
+        <v>5.686072227111111</v>
       </c>
       <c r="R3">
-        <v>21.944168133664</v>
+        <v>51.174650044</v>
       </c>
       <c r="S3">
-        <v>0.2056628580663596</v>
+        <v>0.315502696725153</v>
       </c>
       <c r="T3">
-        <v>0.2056628580663596</v>
+        <v>0.3155026967251529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H4">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I4">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J4">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5034866666666667</v>
+        <v>0.754325</v>
       </c>
       <c r="N4">
-        <v>1.51046</v>
+        <v>2.262975</v>
       </c>
       <c r="O4">
-        <v>0.2266029451211792</v>
+        <v>0.3204015498375038</v>
       </c>
       <c r="P4">
-        <v>0.2266029451211792</v>
+        <v>0.3204015498375038</v>
       </c>
       <c r="Q4">
-        <v>0.7901842261755557</v>
+        <v>2.760798069791667</v>
       </c>
       <c r="R4">
-        <v>7.111658035580001</v>
+        <v>24.847182628125</v>
       </c>
       <c r="S4">
-        <v>0.06665114431675499</v>
+        <v>0.1531882117113753</v>
       </c>
       <c r="T4">
-        <v>0.06665114431675499</v>
+        <v>0.1531882117113753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>7.333488</v>
       </c>
       <c r="I5">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J5">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1648133333333333</v>
+        <v>0.046397</v>
       </c>
       <c r="N5">
-        <v>0.49444</v>
+        <v>0.139191</v>
       </c>
       <c r="O5">
-        <v>0.07417711173133736</v>
+        <v>0.01970724914037141</v>
       </c>
       <c r="P5">
-        <v>0.07417711173133736</v>
+        <v>0.01970724914037141</v>
       </c>
       <c r="Q5">
-        <v>0.40288553408</v>
+        <v>0.113417280912</v>
       </c>
       <c r="R5">
-        <v>3.62596980672</v>
+        <v>1.020755528208</v>
       </c>
       <c r="S5">
-        <v>0.03398293839028508</v>
+        <v>0.006293176828172391</v>
       </c>
       <c r="T5">
-        <v>0.03398293839028507</v>
+        <v>0.00629317682817239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.333488</v>
       </c>
       <c r="I6">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J6">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>4.660768</v>
       </c>
       <c r="O6">
-        <v>0.6992199431474835</v>
+        <v>0.6598912010221247</v>
       </c>
       <c r="P6">
-        <v>0.6992199431474835</v>
+        <v>0.6598912010221247</v>
       </c>
       <c r="Q6">
         <v>3.797742910976</v>
@@ -821,10 +821,10 @@
         <v>34.179686198784</v>
       </c>
       <c r="S6">
-        <v>0.3203353122631911</v>
+        <v>0.2107250984552692</v>
       </c>
       <c r="T6">
-        <v>0.3203353122631911</v>
+        <v>0.2107250984552692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>7.333488</v>
       </c>
       <c r="I7">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J7">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5034866666666667</v>
+        <v>0.754325</v>
       </c>
       <c r="N7">
-        <v>1.51046</v>
+        <v>2.262975</v>
       </c>
       <c r="O7">
-        <v>0.2266029451211792</v>
+        <v>0.3204015498375038</v>
       </c>
       <c r="P7">
-        <v>0.2266029451211792</v>
+        <v>0.3204015498375038</v>
       </c>
       <c r="Q7">
-        <v>1.23077114272</v>
+        <v>1.8439444452</v>
       </c>
       <c r="R7">
-        <v>11.07694028448</v>
+        <v>16.5955000068</v>
       </c>
       <c r="S7">
-        <v>0.1038141516078594</v>
+        <v>0.1023148180035593</v>
       </c>
       <c r="T7">
-        <v>0.1038141516078594</v>
+        <v>0.1023148180035592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H8">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I8">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J8">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1648133333333333</v>
+        <v>0.046397</v>
       </c>
       <c r="N8">
-        <v>0.49444</v>
+        <v>0.139191</v>
       </c>
       <c r="O8">
-        <v>0.07417711173133736</v>
+        <v>0.01970724914037141</v>
       </c>
       <c r="P8">
-        <v>0.07417711173133736</v>
+        <v>0.01970724914037141</v>
       </c>
       <c r="Q8">
-        <v>0.1906116742755556</v>
+        <v>0.06440336638666666</v>
       </c>
       <c r="R8">
-        <v>1.71550506848</v>
+        <v>0.5796302974800001</v>
       </c>
       <c r="S8">
-        <v>0.01607787879047814</v>
+        <v>0.003573545140050917</v>
       </c>
       <c r="T8">
-        <v>0.01607787879047814</v>
+        <v>0.003573545140050917</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H9">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I9">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J9">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>4.660768</v>
       </c>
       <c r="O9">
-        <v>0.6992199431474835</v>
+        <v>0.6598912010221247</v>
       </c>
       <c r="P9">
-        <v>0.6992199431474835</v>
+        <v>0.6598912010221247</v>
       </c>
       <c r="Q9">
-        <v>1.796773707406222</v>
+        <v>2.156526996337778</v>
       </c>
       <c r="R9">
-        <v>16.170963366656</v>
+        <v>19.40874296704</v>
       </c>
       <c r="S9">
-        <v>0.1515558267424545</v>
+        <v>0.1196590644172743</v>
       </c>
       <c r="T9">
-        <v>0.1515558267424545</v>
+        <v>0.1196590644172743</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H10">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I10">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J10">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5034866666666667</v>
+        <v>0.754325</v>
       </c>
       <c r="N10">
-        <v>1.51046</v>
+        <v>2.262975</v>
       </c>
       <c r="O10">
-        <v>0.2266029451211792</v>
+        <v>0.3204015498375038</v>
       </c>
       <c r="P10">
-        <v>0.2266029451211792</v>
+        <v>0.3204015498375038</v>
       </c>
       <c r="Q10">
-        <v>0.5822977702577778</v>
+        <v>1.047073503666667</v>
       </c>
       <c r="R10">
-        <v>5.240679932320001</v>
+        <v>9.423661532999999</v>
       </c>
       <c r="S10">
-        <v>0.04911615726451261</v>
+        <v>0.05809889513910185</v>
       </c>
       <c r="T10">
-        <v>0.04911615726451261</v>
+        <v>0.05809889513910184</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H11">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I11">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J11">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1648133333333333</v>
+        <v>0.046397</v>
       </c>
       <c r="N11">
-        <v>0.49444</v>
+        <v>0.139191</v>
       </c>
       <c r="O11">
-        <v>0.07417711173133736</v>
+        <v>0.01970724914037141</v>
       </c>
       <c r="P11">
-        <v>0.07417711173133736</v>
+        <v>0.01970724914037141</v>
       </c>
       <c r="Q11">
-        <v>0.02724924765333334</v>
+        <v>0.007537471032000001</v>
       </c>
       <c r="R11">
-        <v>0.24524322888</v>
+        <v>0.06783723928800001</v>
       </c>
       <c r="S11">
-        <v>0.002298443170215616</v>
+        <v>0.0004182311342696302</v>
       </c>
       <c r="T11">
-        <v>0.002298443170215616</v>
+        <v>0.0004182311342696302</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H12">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I12">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J12">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>4.660768</v>
       </c>
       <c r="O12">
-        <v>0.6992199431474835</v>
+        <v>0.6598912010221247</v>
       </c>
       <c r="P12">
-        <v>0.6992199431474835</v>
+        <v>0.6598912010221247</v>
       </c>
       <c r="Q12">
-        <v>0.2568611388373334</v>
+        <v>0.252389908736</v>
       </c>
       <c r="R12">
-        <v>2.311750249536</v>
+        <v>2.271509178624</v>
       </c>
       <c r="S12">
-        <v>0.02166594607547831</v>
+        <v>0.01400434142442827</v>
       </c>
       <c r="T12">
-        <v>0.02166594607547831</v>
+        <v>0.01400434142442827</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H13">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I13">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J13">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5034866666666667</v>
+        <v>0.754325</v>
       </c>
       <c r="N13">
-        <v>1.51046</v>
+        <v>2.262975</v>
       </c>
       <c r="O13">
-        <v>0.2266029451211792</v>
+        <v>0.3204015498375038</v>
       </c>
       <c r="P13">
-        <v>0.2266029451211792</v>
+        <v>0.3204015498375038</v>
       </c>
       <c r="Q13">
-        <v>0.08324346454666669</v>
+        <v>0.1225446222</v>
       </c>
       <c r="R13">
-        <v>0.7491911809200001</v>
+        <v>1.1029015998</v>
       </c>
       <c r="S13">
-        <v>0.007021491932052181</v>
+        <v>0.006799624983467441</v>
       </c>
       <c r="T13">
-        <v>0.00702149193205218</v>
+        <v>0.006799624983467439</v>
       </c>
     </row>
   </sheetData>
